--- a/xlsx/nor_oda_ngopartners_oneyear.xlsx
+++ b/xlsx/nor_oda_ngopartners_oneyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Ti stÃrste sivilsamfunnspartnere fordelt på type støtte, 2023. Beløp er utbetalinger i NOK mill.</t>
+          <t>Arkfane Figurdata viser data for Ti stÃrste sivilsamfunnspartnere fordelt på type støtte, 2024. Beløp er utbetalinger i NOK mill.</t>
         </is>
       </c>
     </row>
@@ -405,7 +405,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Norges Røde Kors</t>
+          <t>Flyktninghjelpen</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -414,13 +414,13 @@
         </is>
       </c>
       <c r="C2">
-        <v>102.320320778</v>
+        <v>517.262234764</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Norges Røde Kors</t>
+          <t>Flyktninghjelpen</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -429,13 +429,13 @@
         </is>
       </c>
       <c r="C3">
-        <v>2229.324027752</v>
+        <v>1234.74533393</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Flyktninghjelpen</t>
+          <t>Norges Røde Kors</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -444,13 +444,13 @@
         </is>
       </c>
       <c r="C4">
-        <v>599.814821904</v>
+        <v>91.931980999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Flyktninghjelpen</t>
+          <t>Norges Røde Kors</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -459,13 +459,13 @@
         </is>
       </c>
       <c r="C5">
-        <v>1454.099148223</v>
+        <v>1515.053373982</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kirkens Nødhjelp</t>
+          <t>Redd Barna Norge</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -474,13 +474,13 @@
         </is>
       </c>
       <c r="C6">
-        <v>659.5367320399999</v>
+        <v>440.372728955</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kirkens Nødhjelp</t>
+          <t>Redd Barna Norge</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>376.749999973</v>
+        <v>153.063773988</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>688.919301967</v>
+        <v>488.961981966</v>
       </c>
     </row>
     <row r="9">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="C9">
-        <v>88.549999997</v>
+        <v>61.527850992</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Redd Barna Norge</t>
+          <t>Kirkens Nødhjelp</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -534,13 +534,13 @@
         </is>
       </c>
       <c r="C10">
-        <v>261.59932498</v>
+        <v>86.23657900000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Redd Barna Norge</t>
+          <t>Kirkens Nødhjelp</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -549,13 +549,13 @@
         </is>
       </c>
       <c r="C11">
-        <v>260.145999976</v>
+        <v>313.999999983</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Caritas Norge</t>
+          <t>Emergent Forest Finance Accelerator</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -564,28 +564,28 @@
         </is>
       </c>
       <c r="C12">
-        <v>118.600555</v>
+        <v>399.946703</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Caritas Norge</t>
+          <t>Regnskogfondet</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nødhjelp</t>
+          <t>Langsiktig bistand</t>
         </is>
       </c>
       <c r="C13">
-        <v>116.71863599</v>
+        <v>248.362748832</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Regnskogfondet</t>
+          <t>WRI - World Resources Institute</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>208.390607615</v>
+        <v>228.913441</v>
       </c>
     </row>
     <row r="15">
@@ -609,13 +609,13 @@
         </is>
       </c>
       <c r="C15">
-        <v>187.394381877</v>
+        <v>206.646506868</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Digni</t>
+          <t>Caritas Norge</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -624,22 +624,22 @@
         </is>
       </c>
       <c r="C16">
-        <v>186.795553894</v>
+        <v>133.100944</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Emergent Forest Finance Accelerator</t>
+          <t>Caritas Norge</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Langsiktig bistand</t>
+          <t>Nødhjelp</t>
         </is>
       </c>
       <c r="C17">
-        <v>160</v>
+        <v>64.215200049</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_ngopartners_oneyear.xlsx
+++ b/xlsx/nor_oda_ngopartners_oneyear.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -465,7 +465,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Redd Barna Norge</t>
+          <t>Kirkens Nødhjelp</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -474,13 +474,13 @@
         </is>
       </c>
       <c r="C6">
-        <v>440.372728955</v>
+        <v>346.303834861</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Redd Barna Norge</t>
+          <t>Kirkens Nødhjelp</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="C7">
-        <v>153.063773988</v>
+        <v>313.999999983</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Norsk Folkehjelp</t>
+          <t>Redd Barna Norge</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="C8">
-        <v>488.961981966</v>
+        <v>440.372728955</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Norsk Folkehjelp</t>
+          <t>Redd Barna Norge</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="C9">
-        <v>61.527850992</v>
+        <v>153.063773988</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kirkens Nødhjelp</t>
+          <t>Norsk Folkehjelp</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -534,13 +534,13 @@
         </is>
       </c>
       <c r="C10">
-        <v>86.23657900000001</v>
+        <v>488.961981966</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kirkens Nødhjelp</t>
+          <t>Norsk Folkehjelp</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>313.999999983</v>
+        <v>61.527850992</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +585,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WRI - World Resources Institute</t>
+          <t>Digni</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C14">
-        <v>228.913441</v>
+        <v>235.678310835</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Atlas-alliansen</t>
+          <t>WRI - World Resources Institute</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -609,13 +609,13 @@
         </is>
       </c>
       <c r="C15">
-        <v>206.646506868</v>
+        <v>228.913441</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Caritas Norge</t>
+          <t>Atlas-alliansen</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -624,22 +624,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>133.100944</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Caritas Norge</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Nødhjelp</t>
-        </is>
-      </c>
-      <c r="C17">
-        <v>64.215200049</v>
+        <v>206.646506868</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_ngopartners_oneyear.xlsx
+++ b/xlsx/nor_oda_ngopartners_oneyear.xlsx
@@ -414,7 +414,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>517.262234764</v>
+        <v>508.762234765</v>
       </c>
     </row>
     <row r="3">
@@ -429,7 +429,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>1234.74533393</v>
+        <v>1243.245333929</v>
       </c>
     </row>
     <row r="4">
@@ -444,7 +444,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>91.931980999</v>
+        <v>84.159481</v>
       </c>
     </row>
     <row r="5">
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>1515.053373982</v>
+        <v>1522.825873981</v>
       </c>
     </row>
     <row r="6">

--- a/xlsx/nor_oda_ngopartners_oneyear.xlsx
+++ b/xlsx/nor_oda_ngopartners_oneyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Ti stÃrste sivilsamfunnspartnere fordelt på type støtte, 2024. Beløp er utbetalinger i NOK mill.</t>
+          <t>Arkfane Figurdata viser data for Ti største sivilsamfunnspartnere fordelt på type støtte, 2024. Beløp er utbetalinger i NOK mill.</t>
         </is>
       </c>
     </row>

--- a/xlsx/nor_oda_ngopartners_oneyear.xlsx
+++ b/xlsx/nor_oda_ngopartners_oneyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Ti største sivilsamfunnspartnere fordelt på type støtte, 2024. Beløp er utbetalinger i NOK mill.</t>
+          <t>Arkfane Figurdata inneholder data om ti største sivilsamfunnspartnere fordelt på type støtte. 2024. Beløp er utbetalinger i NOK mill.</t>
         </is>
       </c>
     </row>
